--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Área de Trabalho\Professional\Cenergia - Emission Simulator\Input - EPS\Transportation\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\BMRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDBAE6A-0C3B-4648-831C-248B64E61081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF87F93-F28F-4FE0-B667-A046BAE96925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2064" windowWidth="17220" windowHeight="9912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>Sales Percentage (dimensionless)</t>
   </si>
   <si>
-    <t>in the Brazil for any vehicle type.</t>
+    <t>in Brazil for any vehicle type.</t>
   </si>
 </sst>
 </file>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,9 +168,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,26 +203,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,26 +238,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,20 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -469,18 +435,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -498,21 +464,20 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -617,7 +582,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -727,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -837,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -947,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1289,22 +1254,19 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C1">
         <v>2017</v>
@@ -1409,7 +1371,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1959,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\BMRESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BMRESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF87F93-F28F-4FE0-B667-A046BAE96925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4CF7A1-43D4-43EF-8FFD-3BAA18B20529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2064" windowWidth="17220" windowHeight="9912" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -420,14 +420,14 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,17 +435,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -461,18 +461,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -581,8 +581,68 @@
       <c r="AJ1">
         <v>2050</v>
       </c>
+      <c r="AK1">
+        <v>2051</v>
+      </c>
+      <c r="AL1">
+        <v>2052</v>
+      </c>
+      <c r="AM1">
+        <v>2053</v>
+      </c>
+      <c r="AN1">
+        <v>2054</v>
+      </c>
+      <c r="AO1">
+        <v>2055</v>
+      </c>
+      <c r="AP1">
+        <v>2056</v>
+      </c>
+      <c r="AQ1">
+        <v>2057</v>
+      </c>
+      <c r="AR1">
+        <v>2058</v>
+      </c>
+      <c r="AS1">
+        <v>2059</v>
+      </c>
+      <c r="AT1">
+        <v>2060</v>
+      </c>
+      <c r="AU1">
+        <v>2061</v>
+      </c>
+      <c r="AV1">
+        <v>2062</v>
+      </c>
+      <c r="AW1">
+        <v>2063</v>
+      </c>
+      <c r="AX1">
+        <v>2064</v>
+      </c>
+      <c r="AY1">
+        <v>2065</v>
+      </c>
+      <c r="AZ1">
+        <v>2066</v>
+      </c>
+      <c r="BA1">
+        <v>2067</v>
+      </c>
+      <c r="BB1">
+        <v>2068</v>
+      </c>
+      <c r="BC1">
+        <v>2069</v>
+      </c>
+      <c r="BD1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -691,8 +751,68 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -801,8 +921,68 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -911,8 +1091,68 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1261,68 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1431,68 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1239,6 +1599,66 @@
         <v>0</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
         <v>0</v>
       </c>
     </row>
@@ -1252,16 +1672,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BC9" sqref="BC9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1370,8 +1792,68 @@
       <c r="AJ1">
         <v>2050</v>
       </c>
+      <c r="AK1">
+        <v>2051</v>
+      </c>
+      <c r="AL1">
+        <v>2052</v>
+      </c>
+      <c r="AM1">
+        <v>2053</v>
+      </c>
+      <c r="AN1">
+        <v>2054</v>
+      </c>
+      <c r="AO1">
+        <v>2055</v>
+      </c>
+      <c r="AP1">
+        <v>2056</v>
+      </c>
+      <c r="AQ1">
+        <v>2057</v>
+      </c>
+      <c r="AR1">
+        <v>2058</v>
+      </c>
+      <c r="AS1">
+        <v>2059</v>
+      </c>
+      <c r="AT1">
+        <v>2060</v>
+      </c>
+      <c r="AU1">
+        <v>2061</v>
+      </c>
+      <c r="AV1">
+        <v>2062</v>
+      </c>
+      <c r="AW1">
+        <v>2063</v>
+      </c>
+      <c r="AX1">
+        <v>2064</v>
+      </c>
+      <c r="AY1">
+        <v>2065</v>
+      </c>
+      <c r="AZ1">
+        <v>2066</v>
+      </c>
+      <c r="BA1">
+        <v>2067</v>
+      </c>
+      <c r="BB1">
+        <v>2068</v>
+      </c>
+      <c r="BC1">
+        <v>2069</v>
+      </c>
+      <c r="BD1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1480,8 +1962,68 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1590,8 +2132,68 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1700,8 +2302,68 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1810,8 +2472,68 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1920,8 +2642,68 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2028,6 +2810,66 @@
         <v>0</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
         <v>0</v>
       </c>
     </row>
